--- a/DA_Svietashova_karta.xlsx
+++ b/DA_Svietashova_karta.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,12 +21,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Регион</t>
   </si>
   <si>
     <t xml:space="preserve">Количество беженцев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прага</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Южночешский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Южноморавский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карловарский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Край Высочина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краловеградский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Либерецкий край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моравскослезский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оломоуцкий край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пардубицкий край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плзенский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стредочешский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устецкий край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Злинский край</t>
   </si>
   <si>
     <t xml:space="preserve">Hlavní město Praha</t>
@@ -74,8 +117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -193,9 +237,29 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -227,16 +291,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,115 +314,212 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>98316</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>17613</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>40187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>13424</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>15378</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>16684</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>15222</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>20572</v>
       </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>12259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>17178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>31799</v>
       </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>53054</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>18078</v>
       </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>11426</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DA_Svietashova_karta.xlsx
+++ b/DA_Svietashova_karta.xlsx
@@ -237,7 +237,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,6 +248,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -258,12 +262,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -294,7 +298,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,7 +318,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -322,7 +326,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -330,7 +334,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -338,7 +342,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -346,7 +350,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -354,7 +358,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -362,24 +366,24 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>15222</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>20572</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -387,7 +391,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -395,16 +399,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>31799</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -412,16 +416,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>18078</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -451,74 +455,77 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/DA_Svietashova_karta.xlsx
+++ b/DA_Svietashova_karta.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Регион</t>
   </si>
@@ -29,46 +29,136 @@
     <t xml:space="preserve">Количество беженцев</t>
   </si>
   <si>
+    <t xml:space="preserve">Широта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Долгота</t>
+  </si>
+  <si>
     <t xml:space="preserve">Прага</t>
   </si>
   <si>
+    <t xml:space="preserve">50.0755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4378</t>
+  </si>
+  <si>
     <t xml:space="preserve">Южночешский край</t>
   </si>
   <si>
+    <t xml:space="preserve">48.8317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4990</t>
+  </si>
+  <si>
     <t xml:space="preserve">Южноморавский край</t>
   </si>
   <si>
+    <t xml:space="preserve">49.1951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6068</t>
+  </si>
+  <si>
     <t xml:space="preserve">Карловарский край</t>
   </si>
   <si>
+    <t xml:space="preserve">50.2294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8714</t>
+  </si>
+  <si>
     <t xml:space="preserve">Край Высочина</t>
   </si>
   <si>
+    <t xml:space="preserve">49.4382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6183</t>
+  </si>
+  <si>
     <t xml:space="preserve">Краловеградский край</t>
   </si>
   <si>
+    <t xml:space="preserve">50.2091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8260</t>
+  </si>
+  <si>
     <t xml:space="preserve">Либерецкий край</t>
   </si>
   <si>
+    <t xml:space="preserve">50.7671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0582</t>
+  </si>
+  <si>
     <t xml:space="preserve">Моравскослезский край</t>
   </si>
   <si>
+    <t xml:space="preserve">49.8345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2922</t>
+  </si>
+  <si>
     <t xml:space="preserve">Оломоуцкий край</t>
   </si>
   <si>
+    <t xml:space="preserve">49.5955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2569</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пардубицкий край</t>
   </si>
   <si>
+    <t xml:space="preserve">50.0204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7334</t>
+  </si>
+  <si>
     <t xml:space="preserve">Плзенский край</t>
   </si>
   <si>
+    <t xml:space="preserve">49.7477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3772</t>
+  </si>
+  <si>
     <t xml:space="preserve">Стредочешский край</t>
   </si>
   <si>
+    <t xml:space="preserve">50.0515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1634</t>
+  </si>
+  <si>
     <t xml:space="preserve">Устецкий край</t>
   </si>
   <si>
+    <t xml:space="preserve">50.6341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0356</t>
+  </si>
+  <si>
     <t xml:space="preserve">Злинский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6705</t>
   </si>
   <si>
     <t xml:space="preserve">Hlavní město Praha</t>
@@ -237,36 +327,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,141 +393,230 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>98316</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>17613</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>40187</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>13424</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>15378</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>16684</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>15222</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>20572</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>12259</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="n">
         <v>17178</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>31799</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="n">
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="n">
         <v>53054</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <v>18078</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="n">
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>11426</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -460,73 +647,73 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
+      <c r="A1" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
+      <c r="A2" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
+      <c r="A10" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
+      <c r="A13" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
